--- a/biology/Zoologie/Cryptomys_mechowi/Cryptomys_mechowi.xlsx
+++ b/biology/Zoologie/Cryptomys_mechowi/Cryptomys_mechowi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cryptomys mechowi est une espèce de mammifères rongeurs de la famille des Bathyergidae. Ce rat-taupe vit dans des souterrains, en Angola, en République démocratique du Congo (sur les plateaux Batéké) et en Zambie.
-Il est très apprécié pour sa chair, ce qui contribue à la mise en danger de l'espèce. Des études d'élevage en captivité ont été menées au laboratoire du département de biologie de l’université de Kinshasa avec un succès relatif qui permettrait à terme de pouvoir pérenniser l'espèce tout en permettant aux populations locales de conserver une source de protéines non négligeable[1].
+Il est très apprécié pour sa chair, ce qui contribue à la mise en danger de l'espèce. Des études d'élevage en captivité ont été menées au laboratoire du département de biologie de l’université de Kinshasa avec un succès relatif qui permettrait à terme de pouvoir pérenniser l'espèce tout en permettant aux populations locales de conserver une source de protéines non négligeable.
 L'espèce a été décrite pour la première fois en 1881 par le zoologiste allemand Wilhelm Peters (1815-1883).
 </t>
         </is>
@@ -513,10 +525,12 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Mammal Species of the World (version 3, 2005)  (13 déc. 2012)[2] :
-sous-espèce Cryptomys mechowi mechowi - localement appelé Petit Rat-taupe solitaire de même que l'espèce proche Cryptomys amatus[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (13 déc. 2012) :
+sous-espèce Cryptomys mechowi mechowi - localement appelé Petit Rat-taupe solitaire de même que l'espèce proche Cryptomys amatus.
 sous-espèce Cryptomys mechowi mellandi</t>
         </is>
       </c>
